--- a/office/근무표작성중/근무표5월6월초안(메일발송)-1차보완.xlsx
+++ b/office/근무표작성중/근무표5월6월초안(메일발송)-1차보완.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gas00\MathTool\office\근무표작성중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EDDE60-BA5C-4385-9545-351FB329A79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F10464-2163-4547-B8F0-8407B79C805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{0584B32C-BEBA-4F96-AAC3-2FCF421C1532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0584B32C-BEBA-4F96-AAC3-2FCF421C1532}"/>
   </bookViews>
   <sheets>
-    <sheet name="5월초안" sheetId="4" r:id="rId1"/>
-    <sheet name="6월초안" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="x" sheetId="4" r:id="rId1"/>
+    <sheet name="xx" sheetId="5" r:id="rId2"/>
+    <sheet name="7월초안" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5월초안'!$G$2:$G$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'6월초안'!$G$2:$G$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$C$1:$C$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'7월초안'!$G$2:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">x!$G$2:$G$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">xx!$G$2:$G$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="30">
   <si>
     <t>권헌일</t>
   </si>
@@ -127,12 +128,37 @@
     <t>6월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>{'주간': '박병훈', '야간': '이영재', '휴무': '권헌일'}</t>
+  </si>
+  <si>
+    <t>{'주간': '권헌일', '야간': '박병훈', '휴무': '이영재'}</t>
+  </si>
+  <si>
+    <t>{'주간': '이영재', '야간': '권헌일', '휴무': '박병훈'}</t>
+  </si>
+  <si>
+    <t>휴 무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +174,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,6 +276,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABBD997-9B33-417E-BBF7-24890ECD445D}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -1571,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02B6451-CA91-4534-955A-5912AB3B23AA}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2519,7 +2589,16 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2527,7 +2606,16 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2535,7 +2623,16 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2543,7 +2640,16 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2551,7 +2657,16 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2559,7 +2674,16 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I38" s="5">
         <v>10</v>
       </c>
@@ -2577,6 +2701,281 @@
       </c>
       <c r="N38" s="5">
         <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2591,404 +2990,1209 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98E8102-F641-402A-9AB6-374E67819911}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EAD247-4F13-4C3C-B612-ADF83A7DE4B7}">
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f>COUNTIF(B$3:B$33,LEFT($J$14,2)&amp;"*")</f>
+        <v>10</v>
+      </c>
+      <c r="L14" s="4">
+        <f>COUNTIF(C$3:C$33,LEFT($J$14,2)&amp;"*")</f>
+        <v>10</v>
+      </c>
+      <c r="M14" s="11">
+        <f>COUNTIF(D$3:D$33,LEFT($J$14,2)&amp;"*")</f>
+        <v>11</v>
+      </c>
+      <c r="N14" s="13">
+        <f>SUM(K14:M14)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4">
+        <f>COUNTIF(B$3:B$33,LEFT($J$15,2)&amp;"*")</f>
+        <v>10</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" ref="L15:M15" si="0">COUNTIF(C$3:C$33,LEFT($J$15,2)&amp;"*")</f>
+        <v>11</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" ref="N15:N19" si="1">SUM(K15:M15)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4">
+        <f>COUNTIF(B$3:B$33,LEFT($J$16,2)&amp;"*")</f>
+        <v>11</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" ref="L16:M16" si="2">COUNTIF(C$3:C$33,LEFT($J$16,2)&amp;"*")</f>
+        <v>10</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="4">
+        <f>COUNTIF(E$3:E$33,LEFT($J$17,2)&amp;"*")</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" ref="L17:M19" si="3">COUNTIF(F$3:F$33,LEFT($J$17,2)&amp;"*")</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" ref="K18:K19" si="4">COUNTIF(E$3:E$33,LEFT($J$17,2)&amp;"*")</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF36F75-9EEC-4B13-B40C-62BAAE799C85}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E32">
-        <v>9</v>
-      </c>
-      <c r="F32">
-        <v>8</v>
-      </c>
-      <c r="G32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C31" xr:uid="{A98E8102-F641-402A-9AB6-374E67819911}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="이영재,박병훈"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
